--- a/EmployeeSQL/working_docs_archive/Table_relationships_working_version.xlsx
+++ b/EmployeeSQL/working_docs_archive/Table_relationships_working_version.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sterlingrice-my.sharepoint.com/personal/breed_srg_com/Documents/Desktop/DATA ANALYTICS BOOT CAMP/Module 9 - SQL/09-SQL/Module 9 Challenge/sql-challenge/EmployeeSQL/working_docs_archive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sterlingrice-my.sharepoint.com/personal/breed_srg_com/Documents/Desktop/DATA ANALYTICS BOOT CAMP/Module 9 - SQL/09-SQL/Module 9 Challenge/sql-challenge/sql-challenge/EmployeeSQL/working_docs_archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{6D53608E-634E-4970-8AB8-30EB82E17AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08BF5D7E-BD5E-4D1B-8274-2C5B860F8464}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{6D53608E-634E-4970-8AB8-30EB82E17AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF013477-B376-43C9-BED4-95743184D1D2}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E6902BFB-15E8-4C99-BFCF-50610FA2C9C2}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,14 +575,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>4</v>
-      </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
@@ -614,14 +614,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>2</v>
-      </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
@@ -635,14 +635,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>3</v>
-      </c>
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
